--- a/网站简介.xlsx
+++ b/网站简介.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9528" windowHeight="1632"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="9525" windowHeight="1635"/>
   </bookViews>
   <sheets>
     <sheet name="德淘" sheetId="2" r:id="rId1"/>
     <sheet name="美淘" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>网络不稳定、结算时网络不稳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,21 +457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.25" style="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -490,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8">
+    <row r="2" spans="1:6" ht="27">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -510,7 +514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:6" ht="27">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -527,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -547,7 +551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -562,6 +566,11 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +586,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -590,7 +599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
